--- a/Orginal/Data/DataBase/元データ/ItemData.xlsx
+++ b/Orginal/Data/DataBase/元データ/ItemData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Desktop\Orginal\Data\DataBase\元データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{522DAEBB-06A8-443E-A5AC-612C59F31C34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E779D40A-BE6C-462A-9071-B14548FDE950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4562BDB0-05C7-4042-ADB3-B34FBBEEA9F4}"/>
+    <workbookView xWindow="4065" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{4562BDB0-05C7-4042-ADB3-B34FBBEEA9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -381,18 +381,19 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>portion.png</t>
-  </si>
-  <si>
-    <t>magic_portion.png</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>bomb.png</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>#ファイル名</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>potion.png</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>magic_potion.png</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -1101,7 +1102,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1137,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
@@ -1188,7 +1189,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>14</v>
@@ -1244,7 +1245,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>14</v>
@@ -1300,7 +1301,7 @@
         <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>51</v>

--- a/Orginal/Data/DataBase/元データ/ItemData.xlsx
+++ b/Orginal/Data/DataBase/元データ/ItemData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2190487\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E779D40A-BE6C-462A-9071-B14548FDE950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEE8562-DFF8-4731-A7DB-65A81D9B262B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{4562BDB0-05C7-4042-ADB3-B34FBBEEA9F4}"/>
+    <workbookView xWindow="-900" yWindow="135" windowWidth="15825" windowHeight="14010" xr2:uid="{4562BDB0-05C7-4042-ADB3-B34FBBEEA9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="対象IDリスト" comment="対象とIDのリスト">Reference!$E$3:$F$10</definedName>
     <definedName name="対象種類" comment="対象のプルダウン用">Reference!$E$3:$E$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE99025B-C639-439B-A59F-5D3005C00747}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="9">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="M5" s="9">
         <v>0</v>

--- a/Orginal/Data/DataBase/元データ/ItemData.xlsx
+++ b/Orginal/Data/DataBase/元データ/ItemData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2190487\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiki\Documents\GitHub\Original\Orginal\Data\DataBase\元データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEE8562-DFF8-4731-A7DB-65A81D9B262B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4F385F-CEBE-42DD-B0DE-D51E05539C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-900" yWindow="135" windowWidth="15825" windowHeight="14010" xr2:uid="{4562BDB0-05C7-4042-ADB3-B34FBBEEA9F4}"/>
+    <workbookView xWindow="30105" yWindow="525" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{4562BDB0-05C7-4042-ADB3-B34FBBEEA9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
-    <sheet name="装備品" sheetId="3" r:id="rId2"/>
+    <sheet name="EquipmentData" sheetId="3" r:id="rId2"/>
     <sheet name="Reference" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -28,7 +28,7 @@
     <definedName name="対象IDリスト" comment="対象とIDのリスト">Reference!$E$3:$F$10</definedName>
     <definedName name="対象種類" comment="対象のプルダウン用">Reference!$E$3:$E$10</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>ID</t>
     <phoneticPr fontId="6"/>
@@ -300,10 +300,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ソード</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>装備可能</t>
     <rPh sb="0" eb="4">
       <t>ソウビカノウ</t>
@@ -311,10 +307,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>#ソフィエ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
@@ -323,13 +315,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>#モニィ</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -394,6 +379,49 @@
   </si>
   <si>
     <t>magic_potion.png</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>#プレイヤーA</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>#プレイヤーB</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>初心者用の剣</t>
+    <rPh sb="0" eb="4">
+      <t>ショシンシャヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>初心者用の鎧</t>
+    <rPh sb="0" eb="4">
+      <t>ショシンシャヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨロイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>#ファイル名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>beginners_armor.png</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>beginners_sword.png</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -401,7 +429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,14 +505,6 @@
       <color theme="8" tint="-0.249977111117893"/>
       <name val="游ゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -678,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,9 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,6 +772,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1101,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE99025B-C639-439B-A59F-5D3005C00747}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1116,19 +1139,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="K1" s="28" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="K1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
@@ -1138,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
@@ -1189,30 +1212,30 @@
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E31" si="0">IF(D3="","",VLOOKUP(D3, 効果IDリスト, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>46</v>
+      <c r="F3" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G31" si="1">IF(F3="","",VLOOKUP(F3, 対象IDリスト, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="9">
         <f t="shared" ref="I3:I31" si="2">IF(H3="","",VLOOKUP(H3, 効果範囲IDリスト, 2, FALSE))</f>
         <v>0</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="9">
@@ -1242,33 +1265,33 @@
         <v>40001</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>46</v>
+      <c r="F4" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="G4" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="24" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="9">
@@ -1288,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="20"/>
     </row>
@@ -1298,33 +1321,33 @@
         <v>40002</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>51</v>
+      <c r="D5" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="24" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="9">
@@ -1344,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="20"/>
     </row>
@@ -1355,22 +1378,22 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="24"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J6" s="25"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1389,22 +1412,22 @@
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="24"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1423,22 +1446,22 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H8" s="24"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J8" s="25"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1457,22 +1480,22 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H9" s="24"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1491,22 +1514,22 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="24"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H10" s="24"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J10" s="25"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1525,22 +1548,22 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="24"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H11" s="24"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1559,22 +1582,22 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H12" s="24"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1593,22 +1616,22 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J13" s="25"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1627,22 +1650,22 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="24"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H14" s="24"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1661,22 +1684,22 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="24"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="24"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H15" s="24"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J15" s="25"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1695,22 +1718,22 @@
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="24"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F16" s="24"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H16" s="24"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J16" s="25"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1729,22 +1752,22 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="24"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F17" s="24"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H17" s="24"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J17" s="25"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1763,22 +1786,22 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="24"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F18" s="24"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J18" s="25"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1797,22 +1820,22 @@
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="24"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F19" s="24"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H19" s="24"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J19" s="25"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1831,22 +1854,22 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="24"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="24"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H20" s="24"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J20" s="25"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1865,22 +1888,22 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="24"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F21" s="24"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H21" s="24"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J21" s="25"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1899,22 +1922,22 @@
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="24"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F22" s="24"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H22" s="24"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J22" s="25"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1933,22 +1956,22 @@
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="24"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F23" s="24"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H23" s="24"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J23" s="25"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1967,22 +1990,22 @@
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="24"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F24" s="24"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H24" s="24"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J24" s="25"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2001,22 +2024,22 @@
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="24"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F25" s="24"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H25" s="24"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J25" s="25"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2035,22 +2058,22 @@
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="24"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F26" s="24"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H26" s="24"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J26" s="25"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2069,22 +2092,22 @@
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="24"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F27" s="24"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H27" s="24"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J27" s="25"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2103,22 +2126,22 @@
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="24"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F28" s="24"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H28" s="24"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J28" s="25"/>
+      <c r="J28" s="24"/>
       <c r="K28" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2137,22 +2160,22 @@
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="24"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F29" s="24"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H29" s="24"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J29" s="25"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2171,22 +2194,22 @@
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="24"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F30" s="24"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H30" s="24"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J30" s="25"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2205,22 +2228,22 @@
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="24"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F31" s="24"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H31" s="24"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J31" s="25"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2259,98 +2282,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFA0BC4-B8FE-4806-BAA3-7B0C857EB916}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="11.625" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="16"/>
-      <c r="F1" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="G2" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>50000</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="9">
+        <v>56</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="9">
         <v>5</v>
       </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
       <c r="E3" s="9">
         <v>0</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="str">
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="9">
         <f>IF(B4="", "", A3+1)</f>
-        <v/>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>50001</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="str">
-        <f t="shared" ref="A5:A31" si="0">IF(B5="", "", A4+1)</f>
+        <f>IF(B5="", "", A4+1)</f>
         <v/>
       </c>
       <c r="B5" s="9"/>
@@ -2359,11 +2404,12 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H5" s="9"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B6="", "", A5+1)</f>
         <v/>
       </c>
       <c r="B6" s="9"/>
@@ -2372,11 +2418,12 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H6" s="9"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7="", "", A6+1)</f>
         <v/>
       </c>
       <c r="B7" s="9"/>
@@ -2385,11 +2432,12 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H7" s="9"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8="", "", A7+1)</f>
         <v/>
       </c>
       <c r="B8" s="9"/>
@@ -2398,11 +2446,12 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H8" s="9"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9="", "", A8+1)</f>
         <v/>
       </c>
       <c r="B9" s="9"/>
@@ -2411,11 +2460,12 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H9" s="9"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10="", "", A9+1)</f>
         <v/>
       </c>
       <c r="B10" s="9"/>
@@ -2424,11 +2474,12 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H10" s="9"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11="", "", A10+1)</f>
         <v/>
       </c>
       <c r="B11" s="9"/>
@@ -2437,11 +2488,12 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H11" s="9"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12="", "", A11+1)</f>
         <v/>
       </c>
       <c r="B12" s="9"/>
@@ -2450,11 +2502,12 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H12" s="9"/>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13="", "", A12+1)</f>
         <v/>
       </c>
       <c r="B13" s="9"/>
@@ -2463,11 +2516,12 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H13" s="9"/>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14="", "", A13+1)</f>
         <v/>
       </c>
       <c r="B14" s="9"/>
@@ -2476,11 +2530,12 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H14" s="9"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15="", "", A14+1)</f>
         <v/>
       </c>
       <c r="B15" s="9"/>
@@ -2489,11 +2544,12 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H15" s="9"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16="", "", A15+1)</f>
         <v/>
       </c>
       <c r="B16" s="9"/>
@@ -2502,11 +2558,12 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H16" s="9"/>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17="", "", A16+1)</f>
         <v/>
       </c>
       <c r="B17" s="9"/>
@@ -2515,11 +2572,12 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H17" s="9"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18="", "", A17+1)</f>
         <v/>
       </c>
       <c r="B18" s="9"/>
@@ -2528,11 +2586,12 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H18" s="9"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19="", "", A18+1)</f>
         <v/>
       </c>
       <c r="B19" s="9"/>
@@ -2541,11 +2600,12 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H19" s="9"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20="", "", A19+1)</f>
         <v/>
       </c>
       <c r="B20" s="9"/>
@@ -2554,11 +2614,12 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H20" s="9"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21="", "", A20+1)</f>
         <v/>
       </c>
       <c r="B21" s="9"/>
@@ -2567,11 +2628,12 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H21" s="9"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22="", "", A21+1)</f>
         <v/>
       </c>
       <c r="B22" s="9"/>
@@ -2580,11 +2642,12 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H22" s="9"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23="", "", A22+1)</f>
         <v/>
       </c>
       <c r="B23" s="9"/>
@@ -2593,11 +2656,12 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H23" s="9"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24="", "", A23+1)</f>
         <v/>
       </c>
       <c r="B24" s="9"/>
@@ -2606,11 +2670,12 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H24" s="9"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25="", "", A24+1)</f>
         <v/>
       </c>
       <c r="B25" s="9"/>
@@ -2619,11 +2684,12 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H25" s="9"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A26:A28" si="0">IF(B26="", "", A25+1)</f>
         <v/>
       </c>
       <c r="B26" s="9"/>
@@ -2632,9 +2698,10 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H26" s="9"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2645,9 +2712,10 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H27" s="9"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2658,11 +2726,12 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H28" s="9"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A29:A31" si="1">IF(B29="", "", A28+1)</f>
         <v/>
       </c>
       <c r="B29" s="9"/>
@@ -2671,11 +2740,12 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H29" s="9"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B30" s="9"/>
@@ -2684,11 +2754,12 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H30" s="9"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B31" s="9"/>
@@ -2697,7 +2768,8 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="23"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2706,7 +2778,7 @@
   </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G3" xr:uid="{1E3F9647-96CD-418A-8AC1-9FF9B5EA7777}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:H4" xr:uid="{1E3F9647-96CD-418A-8AC1-9FF9B5EA7777}">
       <formula1>装備可能種類</formula1>
     </dataValidation>
   </dataValidations>
@@ -2720,10 +2792,13 @@
   <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
@@ -2759,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F3" s="9">
         <v>0</v>
@@ -2797,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
@@ -2885,21 +2960,24 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B13" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="20"/>
+      <c r="B13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B14" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="20"/>
+      <c r="B14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6"/>
